--- a/keyword_frames.xlsx
+++ b/keyword_frames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3-Doutorado PUC-RJ\1-Tese 2020\Identificador de frames genéricos da comunicação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardao\Documents\GitHub\identificador-frames-twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C082A555-C7A5-4B00-A42E-C153902238E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2664CF5D-AE84-48B3-AB12-B2CC310DB37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7995" xr2:uid="{2525BF80-078E-4573-A243-681E41044C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2525BF80-078E-4573-A243-681E41044C52}"/>
   </bookViews>
   <sheets>
     <sheet name="kw_frames" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="983">
   <si>
     <t xml:space="preserve"> voluntári</t>
   </si>
@@ -2531,9 +2531,6 @@
     <t xml:space="preserve"> xing</t>
   </si>
   <si>
-    <t xml:space="preserve"> engaj</t>
-  </si>
-  <si>
     <t xml:space="preserve"> empres</t>
   </si>
   <si>
@@ -2880,6 +2877,111 @@
   </si>
   <si>
     <t>ATRIBUIÇÃO DE RESPONSABILIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> efeito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> afet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consequência</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> culmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desencad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ter sido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gerou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gerando</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gerei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> provoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> responsabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> torn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> graças</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reduz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quebr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> detid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> puni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> absolv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inocent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apreend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> julg</t>
   </si>
 </sst>
 </file>
@@ -3274,7 +3376,7 @@
   <dimension ref="A1:E516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,415 +3391,415 @@
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>395</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>422</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>826</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>831</v>
@@ -3714,7 +3816,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>827</v>
+        <v>980</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>826</v>
@@ -3731,7 +3833,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>822</v>
+        <v>981</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>392</v>
@@ -3748,7 +3850,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>818</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>817</v>
@@ -3764,6 +3866,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>822</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>813</v>
       </c>
@@ -3778,6 +3883,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>818</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>809</v>
       </c>
@@ -3792,6 +3900,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>668</v>
       </c>
@@ -3806,6 +3917,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>949</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>803</v>
       </c>
@@ -3819,7 +3933,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>950</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>799</v>
       </c>
@@ -3833,7 +3950,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>951</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>796</v>
       </c>
@@ -3847,7 +3967,10 @@
         <v>793</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>952</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>792</v>
       </c>
@@ -3861,7 +3984,10 @@
         <v>789</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>953</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>788</v>
       </c>
@@ -3875,7 +4001,10 @@
         <v>785</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>954</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>784</v>
       </c>
@@ -3889,7 +4018,10 @@
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>955</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>780</v>
       </c>
@@ -3903,7 +4035,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>949</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>776</v>
       </c>
@@ -3917,7 +4052,10 @@
         <v>773</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>772</v>
       </c>
@@ -3931,7 +4069,10 @@
         <v>769</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>957</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>768</v>
       </c>
@@ -3945,7 +4086,10 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>958</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>764</v>
       </c>
@@ -3959,7 +4103,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>959</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>761</v>
       </c>
@@ -3973,7 +4120,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>960</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>758</v>
       </c>
@@ -3987,7 +4137,10 @@
         <v>755</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>961</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>754</v>
       </c>
@@ -4001,7 +4154,10 @@
         <v>751</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>962</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>750</v>
       </c>
@@ -4015,7 +4171,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>963</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>746</v>
       </c>
@@ -4029,7 +4188,10 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>964</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>742</v>
       </c>
@@ -4043,7 +4205,10 @@
         <v>739</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>965</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>738</v>
       </c>
@@ -4057,7 +4222,10 @@
         <v>735</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>714</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>734</v>
       </c>
@@ -4071,7 +4239,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>966</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>730</v>
       </c>
@@ -4085,7 +4256,10 @@
         <v>727</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>967</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>726</v>
       </c>
@@ -4099,7 +4273,10 @@
         <v>724</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>968</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>723</v>
       </c>
@@ -4113,7 +4290,10 @@
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>719</v>
       </c>
@@ -4127,7 +4307,10 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>970</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4141,7 +4324,10 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>971</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>712</v>
       </c>
@@ -4155,7 +4341,10 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>972</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>708</v>
       </c>
@@ -4169,7 +4358,10 @@
         <v>706</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>973</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>705</v>
       </c>
@@ -4183,7 +4375,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>974</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>701</v>
       </c>
@@ -4197,7 +4392,10 @@
         <v>698</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>975</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>697</v>
       </c>
@@ -4211,7 +4409,10 @@
         <v>694</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>982</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>693</v>
       </c>
@@ -4225,7 +4426,10 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>976</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>690</v>
       </c>
@@ -4239,7 +4443,10 @@
         <v>688</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>977</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>687</v>
       </c>
@@ -4253,7 +4460,10 @@
         <v>684</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>978</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>683</v>
       </c>
@@ -4267,7 +4477,10 @@
         <v>680</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>979</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>679</v>
       </c>
@@ -4281,7 +4494,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>675</v>
       </c>
@@ -4295,7 +4508,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>672</v>
       </c>
@@ -4309,7 +4522,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>668</v>
       </c>
@@ -4323,7 +4536,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>349</v>
       </c>
@@ -4337,7 +4550,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>662</v>
       </c>
@@ -4351,7 +4564,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>660</v>
       </c>
@@ -4365,7 +4578,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>656</v>
       </c>
@@ -4379,7 +4592,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>652</v>
       </c>
@@ -4393,7 +4606,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>649</v>
       </c>
@@ -4407,7 +4620,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>645</v>
       </c>
@@ -4421,7 +4634,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>641</v>
       </c>
@@ -4435,7 +4648,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>638</v>
       </c>
@@ -4449,7 +4662,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>635</v>
       </c>
@@ -4463,7 +4676,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>631</v>
       </c>
@@ -4477,7 +4690,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>628</v>
       </c>

--- a/keyword_frames.xlsx
+++ b/keyword_frames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardao\Documents\GitHub\identificador-frames-twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3-Doutorado PUC-RJ\1-Tese 2020\Identificador de frames genéricos da comunicação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2664CF5D-AE84-48B3-AB12-B2CC310DB37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9910051E-E759-461D-B7D6-03B735BC09E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2525BF80-078E-4573-A243-681E41044C52}"/>
   </bookViews>
@@ -2879,6 +2879,12 @@
     <t>ATRIBUIÇÃO DE RESPONSABILIDADE</t>
   </si>
   <si>
+    <t xml:space="preserve"> prend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apreend</t>
+  </si>
+  <si>
     <t xml:space="preserve"> caus</t>
   </si>
   <si>
@@ -2903,9 +2909,6 @@
     <t xml:space="preserve"> ter sido</t>
   </si>
   <si>
-    <t xml:space="preserve"> gera</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gerou</t>
   </si>
   <si>
@@ -2963,6 +2966,9 @@
     <t xml:space="preserve"> acusa</t>
   </si>
   <si>
+    <t xml:space="preserve"> julg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> conden</t>
   </si>
   <si>
@@ -2975,13 +2981,7 @@
     <t xml:space="preserve"> inocent</t>
   </si>
   <si>
-    <t xml:space="preserve"> prend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apreend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> julg</t>
+    <t xml:space="preserve"> gerar</t>
   </si>
 </sst>
 </file>
@@ -3376,7 +3376,7 @@
   <dimension ref="A1:E516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>980</v>
+        <v>948</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>826</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>981</v>
+        <v>949</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>392</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>668</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>803</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>799</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>796</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>792</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>788</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>784</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>780</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>776</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>956</v>
+        <v>982</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>772</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>768</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>764</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>761</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>758</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>754</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>750</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>746</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>742</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>738</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>730</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>726</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>723</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>719</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>712</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>708</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>705</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>701</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>697</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>693</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>690</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>687</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>683</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>679</v>
